--- a/dynam_jobevolution/20180425_dynam_be_jobdata_origineel.xlsx
+++ b/dynam_jobevolution/20180425_dynam_be_jobdata_origineel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>bruto toename</t>
   </si>
@@ -85,12 +85,18 @@
   </si>
   <si>
     <t>02000</t>
+  </si>
+  <si>
+    <t>werkzaamheidsgraad_2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,13 +134,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +556,7 @@
     <col min="1" max="1" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +575,11 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -597,8 +607,11 @@
       <c r="J2" s="1">
         <v>1.0516946572037569E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L2" s="4">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -626,8 +639,11 @@
       <c r="J3" s="1">
         <v>1.1994191776310698E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L3" s="4">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -655,8 +671,11 @@
       <c r="J4" s="1">
         <v>1.1363573920927551E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L4" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -684,8 +703,11 @@
       <c r="J5" s="1">
         <v>1.9719771665801772E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L5" s="4">
+        <v>69.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -713,8 +735,11 @@
       <c r="J6" s="1">
         <v>1.4801546001663342E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L6" s="4">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -742,8 +767,11 @@
       <c r="J7" s="1">
         <v>2.0416317587162468E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L7" s="4">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -771,8 +799,11 @@
       <c r="J8" s="1">
         <v>2.1202034516472769E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L8" s="4">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -800,8 +831,11 @@
       <c r="J9" s="1">
         <v>1.6573923570675775E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L9" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -829,8 +863,11 @@
       <c r="J10" s="1">
         <v>1.4154341193690918E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L10" s="4">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -858,8 +895,11 @@
       <c r="J11" s="1">
         <v>1.8153627751495954E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L11" s="4">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -887,8 +927,12 @@
       <c r="J12" s="1">
         <v>1.5461061981844437E-2</v>
       </c>
+      <c r="L12" s="4">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dynam_jobevolution/20180425_dynam_be_jobdata_origineel.xlsx
+++ b/dynam_jobevolution/20180425_dynam_be_jobdata_origineel.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
   <si>
     <t>bruto toename</t>
   </si>
@@ -88,6 +88,39 @@
   </si>
   <si>
     <t>werkzaamheidsgraad_2016</t>
+  </si>
+  <si>
+    <t>Anvers</t>
+  </si>
+  <si>
+    <t>Bruxelles</t>
+  </si>
+  <si>
+    <t>Hainaut</t>
+  </si>
+  <si>
+    <t>Limbourg</t>
+  </si>
+  <si>
+    <t>Liège</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Namur</t>
+  </si>
+  <si>
+    <t>Flandre orientale</t>
+  </si>
+  <si>
+    <t>Brabant flamand</t>
+  </si>
+  <si>
+    <t>Brabant wallon</t>
+  </si>
+  <si>
+    <t>Flandre occidentale</t>
   </si>
 </sst>
 </file>
@@ -95,7 +128,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -141,7 +174,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,389 +578,422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="1" max="2" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
         <v>10000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>40971</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>33787</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7184</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>5.997909493359567E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>4.94621483615581E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>1.0516946572037569E-2</v>
       </c>
-      <c r="L2" s="4">
+      <c r="M2" s="4">
         <v>69.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>34833</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>34090</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>743</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>5.6230643626410788E-2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>5.5031224448779718E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1.1994191776310698E-3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>59.8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4">
         <v>50000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>21070</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>16934</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>4136</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>50000</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>5.7889386487897355E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>4.6525812566969804E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>1.1363573920927551E-2</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
         <v>70000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>20325</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>14758</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5567</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>70000</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>7.1996471907206913E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>5.2276700241405141E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>1.9719771665801772E-2</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>69.7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
         <v>60000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>18876</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>14133</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4743</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>60000</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>5.8906595472780356E-2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>4.4105049471117014E-2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>1.4801546001663342E-2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>61.1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
         <v>80000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4776</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3192</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1584</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>80000</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>6.1558290906747436E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>4.1141973319584968E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>2.0416317587162468E-2</v>
       </c>
-      <c r="L7" s="4">
+      <c r="M7" s="4">
         <v>68.2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
         <v>90000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>8963</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>6068</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>2895</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>90000</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>6.5642084756872346E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>4.4440050240399577E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>2.1202034516472769E-2</v>
       </c>
-      <c r="L8" s="4">
+      <c r="M8" s="4">
         <v>64.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
         <v>40000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>29452</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>21361</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>8091</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>40000</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>6.0330638611239995E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>4.375671504056422E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1.6573923570675775E-2</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>20001</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>25111</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>19894</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>5217</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>20001</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>6.8129128179944903E-2</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>5.3974786986253985E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>1.4154341193690918E-2</v>
       </c>
-      <c r="L10" s="4">
+      <c r="M10" s="4">
         <v>73.900000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
         <v>20002</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9510</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7221</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2289</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>20002</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>7.5422018312243988E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>5.7268390560748034E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>1.8153627751495954E-2</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <v>69.3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
         <v>30000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>25417</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>18956</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>6461</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>30000</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>6.082244426443896E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>4.5361382282594523E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>1.5461061981844437E-2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>74</v>
       </c>
     </row>
